--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -121,15 +121,15 @@
     <t>safe</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
@@ -142,19 +142,19 @@
     <t>join</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>care</t>
@@ -1522,25 +1522,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6982758620689655</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L22">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N22">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1548,13 +1548,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6956521739130435</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N23">
         <v>0.9399999999999999</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1574,25 +1574,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6888888888888889</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L24">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1704,25 +1704,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5858895705521472</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L29">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="N29">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O29">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1730,25 +1730,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5735294117647058</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1759,22 +1759,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1782,25 +1782,25 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1808,25 +1808,25 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5684210526315789</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L33">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="M33">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="10:17">
